--- a/лаба 4.xlsx
+++ b/лаба 4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student-4\Desktop\упражнение\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student-4\Desktop\Новая папка\лаба 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE8CAC4-CE5A-465D-BA49-F45B8923CBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB24332-0DAA-480A-B9E5-AE3E0CB991D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FA016AD-A49B-4FCF-84FA-1E0B918EA20D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>конфетная - d</t>
   </si>
@@ -87,6 +87,105 @@
   </si>
   <si>
     <t>Треть всего объёма так изменить</t>
+  </si>
+  <si>
+    <t>Продукция/время</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Конфеты</t>
+  </si>
+  <si>
+    <t>Карамель</t>
+  </si>
+  <si>
+    <t>Зефир</t>
+  </si>
+  <si>
+    <t>Печенье</t>
+  </si>
+  <si>
+    <t>Шоколад</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Мишка косолапый</t>
+  </si>
+  <si>
+    <t>Красная шапочка</t>
+  </si>
+  <si>
+    <t>Славянка</t>
+  </si>
+  <si>
+    <t>Степ</t>
+  </si>
+  <si>
+    <t>Чио-Рио</t>
+  </si>
+  <si>
+    <t>Кис-Кис</t>
+  </si>
+  <si>
+    <t>Дюшес</t>
+  </si>
+  <si>
+    <t>Барбарис</t>
+  </si>
+  <si>
+    <t>Акконд</t>
+  </si>
+  <si>
+    <t>Фереро</t>
+  </si>
+  <si>
+    <t>Конфетка</t>
+  </si>
+  <si>
+    <t>Конти</t>
+  </si>
+  <si>
+    <t>РотФронт</t>
+  </si>
+  <si>
+    <t>Милка</t>
+  </si>
+  <si>
+    <t>Бельвита</t>
+  </si>
+  <si>
+    <t>Альпен Гольд</t>
+  </si>
+  <si>
+    <t>Овсянка</t>
+  </si>
+  <si>
+    <t>Бабаевский</t>
+  </si>
+  <si>
+    <t>Красный октябрь</t>
+  </si>
+  <si>
+    <t>Россия щедрая душа</t>
+  </si>
+  <si>
+    <t>Сладкий орешек</t>
+  </si>
+  <si>
+    <t>Сладуница</t>
+  </si>
+  <si>
+    <t>Спартак</t>
+  </si>
+  <si>
+    <t>Ед. изм</t>
+  </si>
+  <si>
+    <t>кг</t>
   </si>
 </sst>
 </file>
@@ -123,8 +222,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,107 +547,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8647C07C-36DA-4ECA-B190-D2C89601318C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="Q1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="S1">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>